--- a/Route.xlsx
+++ b/Route.xlsx
@@ -18,15 +18,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="21">
   <si>
     <t>Route</t>
   </si>
   <si>
-    <t>MyPickNode23</t>
-  </si>
-  <si>
-    <t>MyCoopNode12</t>
+    <t>MyPickNode6</t>
+  </si>
+  <si>
+    <t>MyCoopNode3</t>
+  </si>
+  <si>
+    <t>MyPickNode8</t>
+  </si>
+  <si>
+    <t>MyCoopNode4</t>
   </si>
   <si>
     <t>MyPickNode12</t>
@@ -35,55 +41,43 @@
     <t>MyCoopNode6</t>
   </si>
   <si>
-    <t>MyPickNode3</t>
-  </si>
-  <si>
-    <t>MyCoopNode2</t>
+    <t>MyPickNode13</t>
+  </si>
+  <si>
+    <t>MyCoopNode7</t>
+  </si>
+  <si>
+    <t>MyPickNode20</t>
+  </si>
+  <si>
+    <t>MyCoopNode10</t>
+  </si>
+  <si>
+    <t>MyPickNode1</t>
+  </si>
+  <si>
+    <t>MyCoopNode1</t>
+  </si>
+  <si>
+    <t>MyPickNode17</t>
+  </si>
+  <si>
+    <t>MyCoopNode9</t>
+  </si>
+  <si>
+    <t>MyPickNode18</t>
+  </si>
+  <si>
+    <t>MyPickNode10</t>
+  </si>
+  <si>
+    <t>MyCoopNode5</t>
   </si>
   <si>
     <t>MyPickNode2</t>
   </si>
   <si>
-    <t>MyCoopNode1</t>
-  </si>
-  <si>
-    <t>MyPickNode17</t>
-  </si>
-  <si>
-    <t>MyCoopNode9</t>
-  </si>
-  <si>
-    <t>MyPickNode10</t>
-  </si>
-  <si>
-    <t>MyCoopNode5</t>
-  </si>
-  <si>
-    <t>MyPickNode20</t>
-  </si>
-  <si>
-    <t>MyCoopNode10</t>
-  </si>
-  <si>
-    <t>MyPickNode15</t>
-  </si>
-  <si>
-    <t>MyCoopNode8</t>
-  </si>
-  <si>
-    <t>MyPickNode14</t>
-  </si>
-  <si>
-    <t>MyCoopNode7</t>
-  </si>
-  <si>
     <t>EndNode</t>
-  </si>
-  <si>
-    <t>MyPickNode21</t>
-  </si>
-  <si>
-    <t>MyCoopNode11</t>
   </si>
   <si>
     <t>Input@Depot</t>
@@ -444,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,72 +481,72 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -567,62 +561,62 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -637,76 +631,16 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
         <v>19</v>
       </c>
     </row>
@@ -717,7 +651,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -730,32 +664,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -770,22 +704,22 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -800,52 +734,52 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -855,131 +789,151 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
         <v>19</v>
       </c>
     </row>
@@ -990,7 +944,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1003,62 +957,62 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1068,66 +1022,16 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1138,7 +1042,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1151,22 +1055,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1176,111 +1080,46 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1291,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1304,126 +1143,81 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
         <v>19</v>
       </c>
     </row>
